--- a/medicine/Mort/Cimetière_de_Bourg-en-Bresse/Cimetière_de_Bourg-en-Bresse.xlsx
+++ b/medicine/Mort/Cimetière_de_Bourg-en-Bresse/Cimetière_de_Bourg-en-Bresse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bourg-en-Bresse</t>
+          <t>Cimetière_de_Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Bourg-en-Bresse, parfois appelé le cimetière de Challes, est l'unique cimetière de Bourg-en-Bresse dans l'Ain en France.
-Le site web de la mairie indique que le site s'étend sur 11 hectares sur lequel se trouvent 580 arbres. Il contient 12 812 emplacements (hors jardin du souvenir et ossuaire)[1].
+Le site web de la mairie indique que le site s'étend sur 11 hectares sur lequel se trouvent 580 arbres. Il contient 12 812 emplacements (hors jardin du souvenir et ossuaire).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bourg-en-Bresse</t>
+          <t>Cimetière_de_Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire et situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Bourg-en-Bresse a été créé en 1830 en remplacement du précédent situé sur l'emplacement de la place Bernard[2].
-Le premier columbarium date de 1974[2], avant qu'il ne soit complété par un nouveau columbarium en 1997[2]. Au début des années 2000, la crémation représente 22 % des concessions du cimetière de Bourg-en-Bresse[2].
-Le territoire historique du cimetière est complété par deux hectares adjacents côté gendarmerie[2], sur lesquels se trouve notamment le carré musulman.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Bourg-en-Bresse a été créé en 1830 en remplacement du précédent situé sur l'emplacement de la place Bernard.
+Le premier columbarium date de 1974, avant qu'il ne soit complété par un nouveau columbarium en 1997. Au début des années 2000, la crémation représente 22 % des concessions du cimetière de Bourg-en-Bresse.
+Le territoire historique du cimetière est complété par deux hectares adjacents côté gendarmerie, sur lesquels se trouve notamment le carré musulman.
 Se trouvent à l'entrée du cimetière, un ensemble de plaques commémoratives, en particulier six d'entre elles en hommage au 1er régiment de tirailleurs marocains. Une plaque rend hommage à Marie Dauphin, Juste parmi les Nations.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bourg-en-Bresse</t>
+          <t>Cimetière_de_Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Organisation du carré militaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Carré militaire Général Albert Senault autour de la tombe d'Albert Senault (1835-1893), il inclut en particulier :
-l'Ossuaire militaire créé en 2022[3], tombe de Claudius Four entre autres ;
+l'Ossuaire militaire créé en 2022, tombe de Claudius Four entre autres ;
 le Monument à la mémoire des français d'outre-mer morts pour la patrie.
 			Tombe d'Albert Senault.
 			Ossuaire militaire.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bourg-en-Bresse</t>
+          <t>Cimetière_de_Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,13 +599,15 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Cabuchet, maire de Bourg de 1753 à 1768. Sa tombe est considérée comme la plus ancienne du cimetière[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Cabuchet, maire de Bourg de 1753 à 1768. Sa tombe est considérée comme la plus ancienne du cimetière.
 Claudius Four, Compagnon de la Libération.
 Elisa Blondel, artiste-peintre.
-Joseph-Marie Carriat (1810-1875)[4], bienfaiteur de la ville, un lycée porte son nom.
-Louis Mouthier (1884-1970), précurseur de l'aéronautique[5].
+Joseph-Marie Carriat (1810-1875), bienfaiteur de la ville, un lycée porte son nom.
+Louis Mouthier (1884-1970), précurseur de l'aéronautique.
 Général de brigade Albert Senault (1835-1893).
 			Tombe d'Elisa Blondel.
 			Vue du cimetière.
